--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0EFB5669-72D9-4DBA-A880-9A220B78482A}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCD3CD5E-D9A5-48C5-B5D0-9A587C447699}"/>
   <bookViews>
-    <workbookView xWindow="19365" yWindow="7995" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="14070" yWindow="1890" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Symptom</t>
   </si>
@@ -93,13 +93,22 @@
   </si>
   <si>
     <t>Scale 1-10 (1- no sense of taste, 10 - excellent sence of taste)</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
+  </si>
+  <si>
+    <t>Calculator 13 - Basic and taste (quantitative)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +191,19 @@
       <color theme="0"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,11 +300,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -297,10 +328,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -314,6 +341,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,231 +681,156 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0.11528099999999999</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="15">
-        <v>-0.13644692999999999</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15">
-        <v>-0.56029116999999995</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0.36054109000000001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15">
-        <v>8.3425589999999994E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.11528099999999999</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-0.13644692999999999</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="13">
+        <v>-0.56029116999999995</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.48833286999999997</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8">
-        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+$B$6*D6+(D7-D8)*$B$9+$B$10</f>
-        <v>-1.0438523099999999</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.36054109000000001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15">
-        <v>-1.0438523099999999</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9">
-        <f>$B$13*EXP(D9)/(1+$B$13*EXP(D9))</f>
-        <v>2.7395974393857398E-2</v>
-      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8.3425589999999994E-2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="str">
-        <f>IF(D10&lt;0.5,"Cannot be determined",_xlfn.CONCAT(ROUND(D10*100,0), "%"))</f>
-        <v>Cannot be determined</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
-        <f>B13/(1-B13)</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.08</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.48833286999999997</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+$B$10*D10+(D11-D12)*$B$13+$B$14</f>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
@@ -880,7 +843,20 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <f>$A$18*EXP(D13)/(1+$A$18*EXP(D13))</f>
+        <v>2.7395974393857398E-2</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="L14" s="2"/>
@@ -893,9 +869,23 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>_xlfn.CONCAT(ROUND(D14*100,0), "%")</f>
+        <v>3%</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -906,19 +896,88 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7">
+        <f>B17/(1-B17)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="B18" s="16"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCD3CD5E-D9A5-48C5-B5D0-9A587C447699}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B958CF83-1F3B-4E9D-8669-B8793BB77BBA}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="1890" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="12930" yWindow="8265" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
   </si>
   <si>
-    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
-  </si>
-  <si>
     <t>Calculator 13 - Basic and taste (quantitative)</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
   </si>
 </sst>
 </file>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,12 +688,12 @@
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -876,8 +876,8 @@
         <v>8</v>
       </c>
       <c r="D15" s="11" t="str">
-        <f>_xlfn.CONCAT(ROUND(D14*100,0), "%")</f>
-        <v>3%</v>
+        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11), ISBLANK(D12)),"",_xlfn.CONCAT(ROUND(D14*100,0), "%"))</f>
+        <v/>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="6"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B958CF83-1F3B-4E9D-8669-B8793BB77BBA}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76A5ED0A-A434-488D-A8B6-D1ED1CCFB67A}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="8265" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="13620" yWindow="8955" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="11" t="str">
-        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11), ISBLANK(D12)),"",_xlfn.CONCAT(ROUND(D14*100,0), "%"))</f>
+        <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11), ISBLANK(D12)),"",_xlfn.CONCAT(ROUND(D14*100,0), "%"))</f>
         <v/>
       </c>
       <c r="E15" s="12"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76A5ED0A-A434-488D-A8B6-D1ED1CCFB67A}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D8CB3A2-8963-4469-9A09-AE3BEBFA73D0}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="8955" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="1740" yWindow="9555" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D8CB3A2-8963-4469-9A09-AE3BEBFA73D0}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6FA402D-0921-4D30-BEB4-02ADAF880DC8}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="9555" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="12240" yWindow="2115" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6FA402D-0921-4D30-BEB4-02ADAF880DC8}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5681EC3E-DB93-4678-BDDB-D8A56F66AF5A}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="2115" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="19065" yWindow="9915" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,8 +901,8 @@
         <v>9</v>
       </c>
       <c r="B16" s="7">
-        <f>B17/(1-B17)</f>
-        <v>0</v>
+        <f>A18/(1-A18)</f>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5681EC3E-DB93-4678-BDDB-D8A56F66AF5A}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1D70E6E-A4B7-4B67-9F19-3FF387AEAA3D}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="9915" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +181,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Lucida Console"/>
       <family val="3"/>
@@ -313,16 +306,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -337,13 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,40 +654,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -726,181 +713,418 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>0.11528099999999999</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>-0.13644692999999999</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>-0.56029116999999995</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>0.36054109000000001</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>8.3425589999999994E-2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>0.48833286999999997</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+$B$10*D10+(D11-D12)*$B$13+$B$14</f>
         <v>-1.0438523099999999</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:AA13" si="0">$B$6*E6+$B$7*E7+$B$8*E8+$B$9*E9+$B$10*E10+(E11-E12)*$B$13+$B$14</f>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0438523099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="13">
-        <v>-1.0438523099999999</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="11">
+        <v>-1.0438523099999999</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
-        <f>$A$18*EXP(D13)/(1+$A$18*EXP(D13))</f>
-        <v>2.7395974393857398E-2</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4" t="s">
+      <c r="D14" s="6">
+        <f>$B$16*EXP(D13)/(1+$B$16*EXP(D13))</f>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ref="E14:AA14" si="1">$B$16*EXP(E13)/(1+$B$16*EXP(E13))</f>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9707462178267408E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="10" t="str">
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11), ISBLANK(D12)),"",_xlfn.CONCAT(ROUND(D14*100,0), "%"))</f>
         <v/>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:AA15" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7), ISBLANK(E8), ISBLANK(E9), ISBLANK(E10), ISBLANK(E11), ISBLANK(E12)),"",_xlfn.CONCAT(ROUND(E14*100,0), "%"))</f>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f>A18/(1-A18)</f>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -915,10 +1139,10 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="L17" s="2"/>
@@ -932,10 +1156,10 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>0.08</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="L18" s="2"/>

--- a/calculator_basic_and_taste.xlsx
+++ b/calculator_basic_and_taste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1D70E6E-A4B7-4B67-9F19-3FF387AEAA3D}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6980DD3F-1765-4634-8E29-5169A3AA2C74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="12300" yWindow="5070" windowWidth="20355" windowHeight="12495" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>Scale 1-10 (1- no sense of taste, 10 - excellent sence of taste)</t>
   </si>
   <si>
-    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
-  </si>
-  <si>
     <t>Calculator 13 - Basic and taste (quantitative)</t>
   </si>
   <si>
     <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (https://www.medrxiv.org/content/10.1101/2020.07.30.20164327v1)</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,17 +670,17 @@
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
